--- a/public/Data_Cracks and Potholes 2.xlsx
+++ b/public/Data_Cracks and Potholes 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91886\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://protivitimf-my.sharepoint.com/personal/harivardhan_r_protivitiglobal_in/Documents/Desktop/road-survey/Road-Survey/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095D9041-6D00-48F3-B03A-5971923195BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{095D9041-6D00-48F3-B03A-5971923195BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCA78059-F457-48E8-9D10-76E102015144}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B467F67D-8F37-4A99-A002-C9E06355F6C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{B467F67D-8F37-4A99-A002-C9E06355F6C0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,9 +129,6 @@
     <t>20220816_07_21_10_305_000_hnEYwZk1I5RsPJ0KVT40Wir0BSh1_F_4160_3120.jpg</t>
   </si>
   <si>
-    <t>20220816_07_24_19_705_000_hnEYwZk1I5RsPJ0KVT40Wir0BSh1_F_4160_3120 (1)</t>
-  </si>
-  <si>
     <t>20220816_07_24_19_705_000_hnEYwZk1I5RsPJ0KVT40Wir0BSh1_F_4160_3120.jpg</t>
   </si>
   <si>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>Potholes</t>
+  </si>
+  <si>
+    <t>20220816_07_24_19_705_000_hnEYwZk1I5RsPJ0KVT40Wir0BSh1_F_4160_3120 (1).jpg</t>
   </si>
 </sst>
 </file>
@@ -290,7 +290,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -344,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -363,8 +363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -701,26 +700,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35CE7708-178B-4824-B67D-19590983A603}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="73.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="73.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,7 +762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -775,7 +776,7 @@
         <v>-123.639138</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>13</v>
@@ -798,11 +799,11 @@
       <c r="L2" s="2">
         <v>320.5</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -816,7 +817,7 @@
         <v>-123.633033</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>16</v>
@@ -839,11 +840,11 @@
       <c r="L3" s="2">
         <v>126.5</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -857,7 +858,7 @@
         <v>-123.63078</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>16</v>
@@ -880,11 +881,11 @@
       <c r="L4" s="2">
         <v>114</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -895,10 +896,10 @@
         <v>39.156339000000003</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>13</v>
@@ -921,11 +922,11 @@
       <c r="L5" s="2">
         <v>289.5</v>
       </c>
-      <c r="M5" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M5" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -939,7 +940,7 @@
         <v>-123.623457</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
@@ -962,11 +963,11 @@
       <c r="L6" s="2">
         <v>315.5</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -980,7 +981,7 @@
         <v>-123.622175</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>13</v>
@@ -1003,11 +1004,11 @@
       <c r="L7" s="2">
         <v>311.5</v>
       </c>
-      <c r="M7" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M7" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>-123.62041600000001</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>13</v>
@@ -1044,11 +1045,11 @@
       <c r="L8" s="2">
         <v>280.5</v>
       </c>
-      <c r="M8" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M8" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1062,7 +1063,7 @@
         <v>-122.200283</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>16</v>
@@ -1085,11 +1086,11 @@
       <c r="L9" s="2">
         <v>120</v>
       </c>
-      <c r="M9" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M9" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1103,7 +1104,7 @@
         <v>-122.20026</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>16</v>
@@ -1126,11 +1127,11 @@
       <c r="L10" s="2">
         <v>126.5</v>
       </c>
-      <c r="M10" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1144,7 +1145,7 @@
         <v>-122.203112</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>16</v>
@@ -1167,11 +1168,11 @@
       <c r="L11" s="2">
         <v>120.5</v>
       </c>
-      <c r="M11" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1182,10 +1183,10 @@
         <v>39.785597000000003</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>21</v>
@@ -1208,11 +1209,11 @@
       <c r="L12" s="2">
         <v>0</v>
       </c>
-      <c r="M12" s="9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M12" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>-122.204543</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>23</v>
@@ -1249,11 +1250,11 @@
       <c r="L13" s="2">
         <v>50</v>
       </c>
-      <c r="M13" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M13" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1267,7 +1268,7 @@
         <v>-122.204714</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>21</v>
@@ -1290,11 +1291,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M14" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>-122.205147</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>13</v>
@@ -1331,11 +1332,11 @@
       <c r="L15" s="2">
         <v>303.5</v>
       </c>
-      <c r="M15" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M15" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1349,7 +1350,7 @@
         <v>-121.824428</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>13</v>
@@ -1372,11 +1373,11 @@
       <c r="L16" s="2">
         <v>295.5</v>
       </c>
-      <c r="M16" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M16" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1390,7 +1391,7 @@
         <v>-121.823227</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>13</v>
@@ -1413,11 +1414,11 @@
       <c r="L17" s="2">
         <v>328</v>
       </c>
-      <c r="M17" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M17" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1431,7 +1432,7 @@
         <v>-121.820099</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>13</v>
@@ -1454,11 +1455,11 @@
       <c r="L18" s="2">
         <v>308.5</v>
       </c>
-      <c r="M18" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M18" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1469,10 +1470,10 @@
         <v>39.735169999999997</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>13</v>
@@ -1495,11 +1496,11 @@
       <c r="L19" s="2">
         <v>295.5</v>
       </c>
-      <c r="M19" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M19" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>-121.817246</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>16</v>
@@ -1536,11 +1537,11 @@
       <c r="L20" s="2">
         <v>113</v>
       </c>
-      <c r="M20" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M20" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -1554,7 +1555,7 @@
         <v>-121.81593100000001</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>16</v>
@@ -1577,11 +1578,11 @@
       <c r="L21" s="2">
         <v>124</v>
       </c>
-      <c r="M21" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M21" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1595,7 +1596,7 @@
         <v>-121.813785</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>16</v>
@@ -1618,11 +1619,11 @@
       <c r="L22" s="2">
         <v>124</v>
       </c>
-      <c r="M22" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M22" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -1636,7 +1637,7 @@
         <v>-123.24827500000001</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>13</v>
@@ -1659,11 +1660,11 @@
       <c r="L23" s="2">
         <v>321.5</v>
       </c>
-      <c r="M23" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M23" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -1677,7 +1678,7 @@
         <v>-123.24827999999999</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>13</v>
@@ -1700,11 +1701,11 @@
       <c r="L24" s="2">
         <v>296.5</v>
       </c>
-      <c r="M24" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M24" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -1718,7 +1719,7 @@
         <v>-123.248341</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>13</v>
@@ -1741,11 +1742,11 @@
       <c r="L25" s="2">
         <v>329</v>
       </c>
-      <c r="M25" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1759,7 +1760,7 @@
         <v>-123.24822</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>13</v>
@@ -1782,11 +1783,11 @@
       <c r="L26" s="2">
         <v>317.5</v>
       </c>
-      <c r="M26" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M26" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1800,7 +1801,7 @@
         <v>-123.248164</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
@@ -1823,11 +1824,11 @@
       <c r="L27" s="2">
         <v>113.5</v>
       </c>
-      <c r="M27" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M27" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -1841,7 +1842,7 @@
         <v>-123.24418799999999</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
@@ -1864,11 +1865,11 @@
       <c r="L28" s="2">
         <v>115</v>
       </c>
-      <c r="M28" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M28" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -1882,7 +1883,7 @@
         <v>-123.236496</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>13</v>
@@ -1905,11 +1906,11 @@
       <c r="L29" s="2">
         <v>279.5</v>
       </c>
-      <c r="M29" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M29" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -1923,7 +1924,7 @@
         <v>-119.887596</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>13</v>
@@ -1946,11 +1947,11 @@
       <c r="L30" s="2">
         <v>313.5</v>
       </c>
-      <c r="M30" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M30" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -1964,7 +1965,7 @@
         <v>-119.857383</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>13</v>
@@ -1987,11 +1988,11 @@
       <c r="L31" s="2">
         <v>304.5</v>
       </c>
-      <c r="M31" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M31" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>-119.809946</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>13</v>
@@ -2028,11 +2029,11 @@
       <c r="L32" s="2">
         <v>308</v>
       </c>
-      <c r="M32" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M32" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2046,7 +2047,7 @@
         <v>-119.794406</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>16</v>
@@ -2069,11 +2070,11 @@
       <c r="L33" s="2">
         <v>113.5</v>
       </c>
-      <c r="M33" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M33" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2087,7 +2088,7 @@
         <v>-119.793921</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>16</v>
@@ -2110,11 +2111,11 @@
       <c r="L34" s="2">
         <v>121.5</v>
       </c>
-      <c r="M34" s="9" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M34" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2128,7 +2129,7 @@
         <v>-119.79269600000001</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>16</v>
@@ -2151,11 +2152,11 @@
       <c r="L35" s="2">
         <v>115</v>
       </c>
-      <c r="M35" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M35" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2169,7 +2170,7 @@
         <v>-119.792517</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>21</v>
@@ -2192,11 +2193,11 @@
       <c r="L36" s="2">
         <v>70</v>
       </c>
-      <c r="M36" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M36" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2210,7 +2211,7 @@
         <v>-120.492983</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>23</v>
@@ -2233,11 +2234,11 @@
       <c r="L37" s="2">
         <v>50</v>
       </c>
-      <c r="M37" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M37" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2251,7 +2252,7 @@
         <v>-120.491694</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>21</v>
@@ -2274,11 +2275,11 @@
       <c r="L38" s="2">
         <v>70</v>
       </c>
-      <c r="M38" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M38" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2292,7 +2293,7 @@
         <v>-120.489665</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>13</v>
@@ -2315,11 +2316,11 @@
       <c r="L39" s="2">
         <v>295</v>
       </c>
-      <c r="M39" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M39" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2333,7 +2334,7 @@
         <v>-120.48854300000001</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>13</v>
@@ -2356,11 +2357,11 @@
       <c r="L40" s="2">
         <v>316.5</v>
       </c>
-      <c r="M40" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M40" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2374,7 +2375,7 @@
         <v>-120.487458</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>13</v>
@@ -2397,11 +2398,11 @@
       <c r="L41" s="2">
         <v>323</v>
       </c>
-      <c r="M41" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M41" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2415,7 +2416,7 @@
         <v>-120.48864500000001</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>13</v>
@@ -2438,11 +2439,11 @@
       <c r="L42" s="2">
         <v>317</v>
       </c>
-      <c r="M42" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M42" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2456,7 +2457,7 @@
         <v>-120.492013</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>13</v>
@@ -2479,11 +2480,11 @@
       <c r="L43" s="2">
         <v>289.5</v>
       </c>
-      <c r="M43" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M43" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2497,7 +2498,7 @@
         <v>-120.81406200000001</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>16</v>
@@ -2520,11 +2521,11 @@
       <c r="L44" s="2">
         <v>114</v>
       </c>
-      <c r="M44" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M44" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2535,7 +2536,7 @@
         <v>37.467675</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E45" s="3" t="s">
         <v>18</v>
@@ -2561,11 +2562,11 @@
       <c r="L45" s="2">
         <v>111.5</v>
       </c>
-      <c r="M45" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M45" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2602,11 +2603,11 @@
       <c r="L46" s="2">
         <v>119</v>
       </c>
-      <c r="M46" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M46" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2643,11 +2644,11 @@
       <c r="L47" s="2">
         <v>338.5</v>
       </c>
-      <c r="M47" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M47" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2684,11 +2685,11 @@
       <c r="L48" s="2">
         <v>331</v>
       </c>
-      <c r="M48" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M48" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2725,11 +2726,11 @@
       <c r="L49" s="2">
         <v>303.5</v>
       </c>
-      <c r="M49" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M49" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2766,11 +2767,11 @@
       <c r="L50" s="2">
         <v>50</v>
       </c>
-      <c r="M50" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M50" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>-120.862257</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>21</v>
@@ -2807,11 +2808,11 @@
       <c r="L51" s="2">
         <v>70</v>
       </c>
-      <c r="M51" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M51" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2825,7 +2826,7 @@
         <v>-120.86442700000001</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>21</v>
@@ -2848,11 +2849,11 @@
       <c r="L52" s="2">
         <v>70</v>
       </c>
-      <c r="M52" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M52" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2863,14 +2864,14 @@
         <v>37.533531000000004</v>
       </c>
       <c r="D53" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H53" s="5">
         <v>0.27</v>
@@ -2887,11 +2888,11 @@
       <c r="L53" s="2">
         <v>338.5</v>
       </c>
-      <c r="M53" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M53" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2905,11 +2906,11 @@
         <v>-120.86527599999999</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F54" s="3"/>
       <c r="G54" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H54" s="5">
         <v>0.26</v>
@@ -2926,11 +2927,11 @@
       <c r="L54" s="2">
         <v>331</v>
       </c>
-      <c r="M54" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M54" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2944,11 +2945,11 @@
         <v>-120.864552</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F55" s="3"/>
       <c r="G55" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H55" s="5">
         <v>0.25</v>
@@ -2965,11 +2966,12 @@
       <c r="L55" s="2">
         <v>303.5</v>
       </c>
-      <c r="M55" s="9" t="s">
-        <v>63</v>
+      <c r="M55" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:M55" xr:uid="{35CE7708-178B-4824-B67D-19590983A603}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
